--- a/guia.xlsx
+++ b/guia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF196D0-8E52-4315-AEB0-4479B0827A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47C61C9-2129-4B8B-B3D2-576C6B9151A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>AREA</t>
+  </si>
   <si>
     <t>TÓPICOS</t>
   </si>
@@ -72,19 +75,21 @@
     <t>DESCRIÇÃO</t>
   </si>
   <si>
+    <t>Comunicação Abertura</t>
+  </si>
+  <si>
     <t>O Agente não cumprimentou o cliente de acordo com os requisitos regionais/linguísticos</t>
   </si>
   <si>
     <t xml:space="preserve">COMUNICAÇÃO 
-Razão da Falha:		
-	Uso incorreto do modelo de cumprimento (ex: 	
-	BraHello	
+**Razão da Falha**:		
+	Uso incorreto do modelo de cumprimento (ex: BraHello	
 	 quando há histórico de Chatbot).	
-Comportamento Correto:		
-	BraHello	
-	: Sem interação prévia com Chatbot.	
-	BraAcceptTransfer	
-	: Quando há conversa prévia com Chatbot.	
+**Comportamento Correto**:		
+	BraHello&gt;	
+	Sem interação prévia com Chatbot.	
+	BraAcceptTransfer	&gt;
+	Quando há conversa prévia com Chatbot.	
 Comportamento Incorreto:		
 	Não usar modelo específico ou usar modelo inadequado ao contexto.	
 Exemplos:		
@@ -104,6 +109,9 @@
 	Atraso &gt; 60 segundos na abertura é avaliado em Questão 9 (Tempos de Espera).	</t>
   </si>
   <si>
+    <t>Compreensão do Problema</t>
+  </si>
+  <si>
     <t>O Agente não reconheceu todas as preocupações do cliente</t>
   </si>
   <si>
@@ -123,6 +131,9 @@
 	Agente: "Vou checar sua aposta" (ignora suspensão e saque).
 Notas:
 	Perguntar sobre mensagens de erro ou confirmar detalhes não é considerado falha (ex: "Qual erro aparece?").</t>
+  </si>
+  <si>
+    <t>Resolução</t>
   </si>
   <si>
     <t>O Agente não coletou as informações relevantes ao revisar os comentários do cliente e navegar pelas ferramentas</t>
@@ -146,6 +157,9 @@
 	Falha em acessar a conta é penalizada em Questão 5.1 (Ações Internas).</t>
   </si>
   <si>
+    <t>Ações Corretas</t>
+  </si>
+  <si>
     <t>O Agente não fez perguntas relevantes</t>
   </si>
   <si>
@@ -162,6 +176,9 @@
 	Agente: "Você pode informar a referência da aposta?"
 Incorreto:
 	Agente: Assume que é a aposta mais recente e verifica apenas essa.</t>
+  </si>
+  <si>
+    <t>Comunicação Fechamento</t>
   </si>
   <si>
     <t>O Agente não forneceu uma resolução que seja consistente com a Base de Conhecimento (KB)</t>
@@ -188,6 +205,9 @@
         Apenas atualizações comunicadas formalmente por e-mail são consideradas; informações em Teams não são base para auditoria.</t>
   </si>
   <si>
+    <t>Comunicação</t>
+  </si>
+  <si>
     <t>O Agente não forneceu informações que sejam precisas, relevantes e completas</t>
   </si>
   <si>
@@ -207,6 +227,9 @@
 Notas:
 	Se as informações necessárias para responder ao cliente não estiverem disponíveis nos recursos oficiais, isso não é considerado falha do 	Agente. É registrado como uma lacuna no processo de negócios para que as informações corretas sejam disponibilizadas.
 	Se o Agente fornecer informações erradas sobre os critérios de qualificação para uma oferta, isso é considerado uma falha. O Agente 	falhou em dar a orientação correta sobre o motivo da não qualificação, o que é essencial para resolver a dúvida do cliente com precisão.</t>
+  </si>
+  <si>
+    <t>Conformidade Crítica</t>
   </si>
   <si>
     <t>O Agente não abordou todas as preocupações do cliente</t>
@@ -750,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -772,6 +795,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1511,315 +1537,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="390">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="375.75">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="274.5">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="245.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:3" ht="274.5">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="188.25">
-      <c r="A5" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="245.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="318">
-      <c r="A6" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="318">
-      <c r="A7" s="2" t="s">
+    <row r="5" spans="1:3" ht="188.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="231">
-      <c r="A8" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="318">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="245.25">
-      <c r="A9" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="216.75">
-      <c r="A10" s="2" t="s">
+    <row r="7" spans="1:3" ht="318">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="231">
-      <c r="A11" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="231">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="216.75">
-      <c r="A12" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="174">
-      <c r="A13" s="2" t="s">
+    <row r="9" spans="1:3" ht="245.25">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="201.75">
-      <c r="A14" s="2" t="s">
+    <row r="10" spans="1:3" ht="216.75">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="201.75">
-      <c r="A15" s="2" t="s">
+    <row r="11" spans="1:3" ht="231">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="174">
-      <c r="A16" s="2" t="s">
+    <row r="12" spans="1:3" ht="216.75">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="201.75">
-      <c r="A17" s="2" t="s">
+    <row r="13" spans="1:3" ht="174">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="216.75">
-      <c r="A18" s="2" t="s">
+    <row r="14" spans="1:3" ht="201.75">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="274.5">
-      <c r="A19" s="2" t="s">
+    <row r="15" spans="1:3" ht="201.75">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="188.25">
-      <c r="A20" s="2" t="s">
+    <row r="16" spans="1:3" ht="174">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="216.75">
-      <c r="A21" s="2" t="s">
+    <row r="17" spans="2:3" ht="201.75">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="201.75">
-      <c r="A22" s="2" t="s">
+    <row r="18" spans="2:3" ht="216.75">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="260.25">
-      <c r="A23" s="2" t="s">
+    <row r="19" spans="2:3" ht="274.5">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="159">
-      <c r="A24" s="2" t="s">
+    <row r="20" spans="2:3" ht="188.25">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="245.25">
-      <c r="A25" s="2" t="s">
+    <row r="21" spans="2:3" ht="216.75">
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="115.5">
-      <c r="A26" s="2" t="s">
+    <row r="22" spans="2:3" ht="201.75">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="201.75">
-      <c r="A27" s="2" t="s">
+    <row r="23" spans="2:3" ht="260.25">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="115.5">
-      <c r="A28" s="5" t="s">
+    <row r="24" spans="2:3" ht="159">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="101.25">
-      <c r="A29" s="5" t="s">
+    <row r="25" spans="2:3" ht="245.25">
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="130.5">
-      <c r="A30" s="2" t="s">
+    <row r="26" spans="2:3" ht="115.5">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="101.25">
-      <c r="A31" s="2" t="s">
+    <row r="27" spans="2:3" ht="201.75">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="101.25">
-      <c r="A32" s="2" t="s">
+    <row r="28" spans="2:3" ht="115.5">
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="144.75">
-      <c r="A33" s="2" t="s">
+    <row r="29" spans="2:3" ht="101.25">
+      <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="130.5">
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="101.25">
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="101.25">
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="144.75">
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1'!A1" display="The agent did not greet the customer as per the regional/language requirements" xr:uid="{606948C5-1791-4E47-97D4-779EED280D5E}"/>
-    <hyperlink ref="A3" location="'2'!A1" display="The agent did not acknowledge all of the customers concerns" xr:uid="{D42FED6F-B9A4-40EF-93D3-B28108AA3004}"/>
-    <hyperlink ref="A4" location="'3'!A1" display="The agent did not gather the relevant information by reviewing customer comments and navigating the tools" xr:uid="{007CBA7B-702F-4452-AAC8-F871026F0DF9}"/>
-    <hyperlink ref="A5" location="'4'!A1" display="The agent did not ask relevant questions" xr:uid="{410724D0-425F-490D-A53F-271CAE01C3EF}"/>
-    <hyperlink ref="A6" location="'5'!A1" display="The agent did not provide a resolution that is consistent with the KB" xr:uid="{C68A3937-C4FB-4BAB-BA71-957EE33C4F6F}"/>
-    <hyperlink ref="A7" location="'6'!A1" display="The agent did not provide information that is accurate, relevant and complete" xr:uid="{26AA8DA7-77B5-412C-8DC8-3D70F6574351}"/>
-    <hyperlink ref="A8" location="'7'!A1" display="The agent did not address all of the customer concerns " xr:uid="{4338C429-D580-4492-A528-F88B6E560883}"/>
-    <hyperlink ref="A9" location="'8'!A1" display="The agent did not resolve additional outstanding account issues or customer queries" xr:uid="{98AB6407-8CCA-422D-BF21-2182958BFD0B}"/>
-    <hyperlink ref="A10" location="'9'!A1" display="The agent did not perform the external (customer facing) actions correctly" xr:uid="{B44ECB45-9323-4C04-9B3E-4A9C295DB2FB}"/>
-    <hyperlink ref="A13" location="'12'!A1" display="The agent did not route the contact to the correct department" xr:uid="{08FC335F-2601-452A-95F7-AEDA58FED089}"/>
-    <hyperlink ref="A14" location="'13'!A1" display="The agent did not close any duplicate contacts" xr:uid="{6250BCB5-CC38-43F6-BD83-AFA92F020317}"/>
-    <hyperlink ref="A15" location="'14'!A1" display="The agent did not share required details internally as per guidelines" xr:uid="{9EB1029B-F386-449C-B1A3-E5E713F4A07E}"/>
-    <hyperlink ref="A18" location="'17'!A1" display="The Agent did not select the right issue type" xr:uid="{73FC6C83-8A85-4AFF-BE2B-C25405A363A9}"/>
-    <hyperlink ref="A19" location="'18'!A1" display="The Agent did not adhere to the wait time guidelines" xr:uid="{2FC2577A-1DA7-43E0-B021-15C14DB110F8}"/>
-    <hyperlink ref="A16" location="'15'!A1" display="The Agent did not escalate issue correctly as per KB" xr:uid="{87B0FD01-EB4F-4B6E-A341-F339309C9BD2}"/>
-    <hyperlink ref="A17" location="'16'!A1" display="The Agent did not share details of escalation correctly" xr:uid="{E1EC17D5-D069-4509-969C-DB0D421C948E}"/>
-    <hyperlink ref="A28" location="'27'!A1" display="The agent's communication or action(s) compromised a customers privacy (Account Security, PCI Masking)" xr:uid="{1C08088D-A31C-425D-8D71-F47958F404D2}"/>
-    <hyperlink ref="A29" location="'28'!A1" display="The agent's communication or action(s) breached Bet365's confidentiality (Sharing internal information, disclosing company processes, sharing info about other users etc)" xr:uid="{53E754A5-55CB-468E-B533-B261BCC7BF02}"/>
-    <hyperlink ref="A30" location="'29'!A1" display="The agent's communication isn't approved or regulated (Negative comments on company, rude behavior etc)" xr:uid="{4B1EF63F-85D8-402F-9F4E-644310B82DB7}"/>
-    <hyperlink ref="A31" location="'30'!A1" display="The agent has not escalated a responsible gambling issue correctly" xr:uid="{719CEB9B-B4BA-44CC-A50F-D47DDC310E15}"/>
-    <hyperlink ref="A20" location="'19'!A1" display="The Agent did not set expectations correctly" xr:uid="{43F7F7F4-F36D-4929-B6CB-D586A814E7DF}"/>
-    <hyperlink ref="A21" location="'20'!A1" display="The Agent did not guide and educate the customer " xr:uid="{715E531C-23B2-442F-B263-4B35F4D19EE2}"/>
-    <hyperlink ref="A22" location="'21'!A1" display="The Agent did not check for additional needs" xr:uid="{89875392-7DDF-48B2-9306-9E3C541A4385}"/>
-    <hyperlink ref="A23" location="'22'!A1" display="The Agent did not display empathy" xr:uid="{B22CCE36-6353-43F1-BD6F-B48C976AEDDC}"/>
-    <hyperlink ref="A24" location="'23'!A1" display="The Agent did not personalise based customer situation" xr:uid="{1B02A159-3F67-4B1A-9F1B-F3F06B41F807}"/>
-    <hyperlink ref="A25" location="'24'!A1" display="The Agent did not correctly apply Grammar, Spelling, Formatting or Punctuation in the contact" xr:uid="{954320FF-55DA-4081-B6EF-4074F8C74079}"/>
-    <hyperlink ref="A26" location="'25'!A1" display="The Agent used the same saved replies through out the contact or sounded robotic" xr:uid="{7E6F41D5-ED2A-410D-A5AA-FAB6E3A5F27F}"/>
-    <hyperlink ref="A27" location="'26'!A1" display="The Agent interrupted the customer, cut them off, rushed through the contact" xr:uid="{B5BD211C-B10C-4E2A-8EBF-BC1CA7274840}"/>
-    <hyperlink ref="A32" location="'31'!A1" display="The Agent has not escalated Legal or regulatory threats correctly" xr:uid="{59FA5BF6-9543-44CA-8EA7-5FA6AC6D383C}"/>
-    <hyperlink ref="A12" location="'11'!A1" display="The Agent did not make required monetary adjustments within specified limits" xr:uid="{837C198F-AAE2-4592-9260-B6A3260060DC}"/>
-    <hyperlink ref="A11" location="'10'!A1" display="The Agent did not perform the internal (non customer facing) actions correctly" xr:uid="{0763681E-2FA2-4CC2-85CA-25E5208FEE2C}"/>
+    <hyperlink ref="B2" location="'1'!A1" display="The agent did not greet the customer as per the regional/language requirements" xr:uid="{606948C5-1791-4E47-97D4-779EED280D5E}"/>
+    <hyperlink ref="B3" location="'2'!A1" display="The agent did not acknowledge all of the customers concerns" xr:uid="{D42FED6F-B9A4-40EF-93D3-B28108AA3004}"/>
+    <hyperlink ref="B4" location="'3'!A1" display="The agent did not gather the relevant information by reviewing customer comments and navigating the tools" xr:uid="{007CBA7B-702F-4452-AAC8-F871026F0DF9}"/>
+    <hyperlink ref="B5" location="'4'!A1" display="The agent did not ask relevant questions" xr:uid="{410724D0-425F-490D-A53F-271CAE01C3EF}"/>
+    <hyperlink ref="B6" location="'5'!A1" display="The agent did not provide a resolution that is consistent with the KB" xr:uid="{C68A3937-C4FB-4BAB-BA71-957EE33C4F6F}"/>
+    <hyperlink ref="B7" location="'6'!A1" display="The agent did not provide information that is accurate, relevant and complete" xr:uid="{26AA8DA7-77B5-412C-8DC8-3D70F6574351}"/>
+    <hyperlink ref="B8" location="'7'!A1" display="The agent did not address all of the customer concerns " xr:uid="{4338C429-D580-4492-A528-F88B6E560883}"/>
+    <hyperlink ref="B9" location="'8'!A1" display="The agent did not resolve additional outstanding account issues or customer queries" xr:uid="{98AB6407-8CCA-422D-BF21-2182958BFD0B}"/>
+    <hyperlink ref="B10" location="'9'!A1" display="The agent did not perform the external (customer facing) actions correctly" xr:uid="{B44ECB45-9323-4C04-9B3E-4A9C295DB2FB}"/>
+    <hyperlink ref="B13" location="'12'!A1" display="The agent did not route the contact to the correct department" xr:uid="{08FC335F-2601-452A-95F7-AEDA58FED089}"/>
+    <hyperlink ref="B14" location="'13'!A1" display="The agent did not close any duplicate contacts" xr:uid="{6250BCB5-CC38-43F6-BD83-AFA92F020317}"/>
+    <hyperlink ref="B15" location="'14'!A1" display="The agent did not share required details internally as per guidelines" xr:uid="{9EB1029B-F386-449C-B1A3-E5E713F4A07E}"/>
+    <hyperlink ref="B18" location="'17'!A1" display="The Agent did not select the right issue type" xr:uid="{73FC6C83-8A85-4AFF-BE2B-C25405A363A9}"/>
+    <hyperlink ref="B19" location="'18'!A1" display="The Agent did not adhere to the wait time guidelines" xr:uid="{2FC2577A-1DA7-43E0-B021-15C14DB110F8}"/>
+    <hyperlink ref="B16" location="'15'!A1" display="The Agent did not escalate issue correctly as per KB" xr:uid="{87B0FD01-EB4F-4B6E-A341-F339309C9BD2}"/>
+    <hyperlink ref="B17" location="'16'!A1" display="The Agent did not share details of escalation correctly" xr:uid="{E1EC17D5-D069-4509-969C-DB0D421C948E}"/>
+    <hyperlink ref="B28" location="'27'!A1" display="The agent's communication or action(s) compromised a customers privacy (Account Security, PCI Masking)" xr:uid="{1C08088D-A31C-425D-8D71-F47958F404D2}"/>
+    <hyperlink ref="B29" location="'28'!A1" display="The agent's communication or action(s) breached Bet365's confidentiality (Sharing internal information, disclosing company processes, sharing info about other users etc)" xr:uid="{53E754A5-55CB-468E-B533-B261BCC7BF02}"/>
+    <hyperlink ref="B30" location="'29'!A1" display="The agent's communication isn't approved or regulated (Negative comments on company, rude behavior etc)" xr:uid="{4B1EF63F-85D8-402F-9F4E-644310B82DB7}"/>
+    <hyperlink ref="B31" location="'30'!A1" display="The agent has not escalated a responsible gambling issue correctly" xr:uid="{719CEB9B-B4BA-44CC-A50F-D47DDC310E15}"/>
+    <hyperlink ref="B20" location="'19'!A1" display="The Agent did not set expectations correctly" xr:uid="{43F7F7F4-F36D-4929-B6CB-D586A814E7DF}"/>
+    <hyperlink ref="B21" location="'20'!A1" display="The Agent did not guide and educate the customer " xr:uid="{715E531C-23B2-442F-B263-4B35F4D19EE2}"/>
+    <hyperlink ref="B22" location="'21'!A1" display="The Agent did not check for additional needs" xr:uid="{89875392-7DDF-48B2-9306-9E3C541A4385}"/>
+    <hyperlink ref="B23" location="'22'!A1" display="The Agent did not display empathy" xr:uid="{B22CCE36-6353-43F1-BD6F-B48C976AEDDC}"/>
+    <hyperlink ref="B24" location="'23'!A1" display="The Agent did not personalise based customer situation" xr:uid="{1B02A159-3F67-4B1A-9F1B-F3F06B41F807}"/>
+    <hyperlink ref="B25" location="'24'!A1" display="The Agent did not correctly apply Grammar, Spelling, Formatting or Punctuation in the contact" xr:uid="{954320FF-55DA-4081-B6EF-4074F8C74079}"/>
+    <hyperlink ref="B26" location="'25'!A1" display="The Agent used the same saved replies through out the contact or sounded robotic" xr:uid="{7E6F41D5-ED2A-410D-A5AA-FAB6E3A5F27F}"/>
+    <hyperlink ref="B27" location="'26'!A1" display="The Agent interrupted the customer, cut them off, rushed through the contact" xr:uid="{B5BD211C-B10C-4E2A-8EBF-BC1CA7274840}"/>
+    <hyperlink ref="B32" location="'31'!A1" display="The Agent has not escalated Legal or regulatory threats correctly" xr:uid="{59FA5BF6-9543-44CA-8EA7-5FA6AC6D383C}"/>
+    <hyperlink ref="B12" location="'11'!A1" display="The Agent did not make required monetary adjustments within specified limits" xr:uid="{837C198F-AAE2-4592-9260-B6A3260060DC}"/>
+    <hyperlink ref="B11" location="'10'!A1" display="The Agent did not perform the internal (non customer facing) actions correctly" xr:uid="{0763681E-2FA2-4CC2-85CA-25E5208FEE2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/guia.xlsx
+++ b/guia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47C61C9-2129-4B8B-B3D2-576C6B9151A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D31DBB6-CC87-4C1E-B610-2723A70F5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>AREA</t>
   </si>
@@ -133,9 +133,6 @@
 	Perguntar sobre mensagens de erro ou confirmar detalhes não é considerado falha (ex: "Qual erro aparece?").</t>
   </si>
   <si>
-    <t>Resolução</t>
-  </si>
-  <si>
     <t>O Agente não coletou as informações relevantes ao revisar os comentários do cliente e navegar pelas ferramentas</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
 	Falha em acessar a conta é penalizada em Questão 5.1 (Ações Internas).</t>
   </si>
   <si>
-    <t>Ações Corretas</t>
-  </si>
-  <si>
     <t>O Agente não fez perguntas relevantes</t>
   </si>
   <si>
@@ -178,7 +172,7 @@
 	Agente: Assume que é a aposta mais recente e verifica apenas essa.</t>
   </si>
   <si>
-    <t>Comunicação Fechamento</t>
+    <t>Resolução</t>
   </si>
   <si>
     <t>O Agente não forneceu uma resolução que seja consistente com a Base de Conhecimento (KB)</t>
@@ -205,9 +199,6 @@
         Apenas atualizações comunicadas formalmente por e-mail são consideradas; informações em Teams não são base para auditoria.</t>
   </si>
   <si>
-    <t>Comunicação</t>
-  </si>
-  <si>
     <t>O Agente não forneceu informações que sejam precisas, relevantes e completas</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
 	Se o Agente fornecer informações erradas sobre os critérios de qualificação para uma oferta, isso é considerado uma falha. O Agente 	falhou em dar a orientação correta sobre o motivo da não qualificação, o que é essencial para resolver a dúvida do cliente com precisão.</t>
   </si>
   <si>
-    <t>Conformidade Crítica</t>
-  </si>
-  <si>
     <t>O Agente não abordou todas as preocupações do cliente</t>
   </si>
   <si>
@@ -271,6 +259,9 @@
 Notas:
 	É essencial verificar se o agente resolveu questões pendentes na conta que possam gerar novos contatos futuros, como:
 OTP pendente, e-mail duplicado, KYC pendente, suspensão de RG, restrição de conta, etc.</t>
+  </si>
+  <si>
+    <t>Ações Corretas</t>
   </si>
   <si>
     <t>O Agente não realizou as ações externas (voltadas para o cliente) corretamente</t>
@@ -465,6 +456,9 @@
 Notas:
 	Após resolver tudo, enviar BraAnythingElse em ≤3 minutos.
 Telefone: Atender Twilio em ≤30s; Verint em ≤3s.</t>
+  </si>
+  <si>
+    <t>Comunicação Fechamento</t>
   </si>
   <si>
     <t>O Agente não definiu as expectativas corretamente</t>
@@ -613,6 +607,9 @@
 		Analise toda a conversa para identificar se o agente interrompeu ou apressou o cliente. Avalie a interação como um todo.</t>
   </si>
   <si>
+    <t>Conformidade Crítica</t>
+  </si>
+  <si>
     <t>A comunicação ou as ações do Agente comprometeram a privacidade do cliente (Segurança da Conta, Máscara PCI)</t>
   </si>
   <si>
@@ -676,7 +673,10 @@
 	Dizer "Fique à vontade" sem acionar HD.</t>
   </si>
   <si>
-    <t>Observações gerais</t>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Notas Gerais</t>
   </si>
   <si>
     <t>Falha de Processo vs. Falha do Agente:
@@ -1539,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1585,252 +1585,327 @@
     </row>
     <row r="4" spans="1:3" ht="245.25">
       <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="188.25">
       <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="318">
       <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="318">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="231">
       <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="245.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="216.75">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="245.25">
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="231">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="216.75">
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="216.75">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="231">
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="174">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="216.75">
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="201.75">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="174">
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="201.75">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="201.75">
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="174">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="201.75">
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="201.75">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="174">
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="216.75">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="201.75">
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="274.5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="216.75">
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="188.25">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="274.5">
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="188.25">
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:3" ht="216.75">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="216.75">
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:3" ht="201.75">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="201.75">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:3" ht="260.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="260.25">
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:3" ht="159">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="159">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:3" ht="245.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="245.25">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:3" ht="115.5">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="115.5">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:3" ht="201.75">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="201.75">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:3" ht="115.5">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="115.5">
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="101.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="101.25">
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="130.5">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="130.5">
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="101.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="101.25">
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="101.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" ht="101.25">
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="144.75">
+      <c r="A33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="144.75">
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>

--- a/guia.xlsx
+++ b/guia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D31DBB6-CC87-4C1E-B610-2723A70F5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240A2BF5-7828-4FBE-8569-D03CB1FCD0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,11 +78,10 @@
     <t>Comunicação Abertura</t>
   </si>
   <si>
-    <t>O Agente não cumprimentou o cliente de acordo com os requisitos regionais/linguísticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMUNICAÇÃO 
-**Razão da Falha**:		
+    <t>Não cumprimentou corretamente (padrão regional/linguístico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###**Razão da Falha**:		
 	Uso incorreto do modelo de cumprimento (ex: BraHello	
 	 quando há histórico de Chatbot).	
 **Comportamento Correto**:		
@@ -90,20 +89,20 @@
 	Sem interação prévia com Chatbot.	
 	BraAcceptTransfer	&gt;
 	Quando há conversa prévia com Chatbot.	
-Comportamento Incorreto:		
+**Comportamento Incorreto**:		
 	Não usar modelo específico ou usar modelo inadequado ao contexto.	
-Exemplos:		
-	Correto:	
+**Exemplos**:		
+	**Correto**:	
 		Cenário: Cliente relata depósito não creditado após interagir com Chatbot.
 		Ação do Agente: Usa 
 		IngAcceptTransfer
 		 e menciona: "Vi que seu contato é sobre o depósito".
-	Incorreto:	
+	**Incorreto**:	
 		Cenário: Histórico de Chatbot visível.
 		Ação do Agente: Usa 
 		BraHello
 		 ou mensagem genérica ("Como posso ajudar?").
-Notas:		
+**Notas**:		
 	Personalização (ex: incluir nome do cliente) é permitida, mas não substitui o modelo obrigatório.	
 	E-mails: Selecionar modelo de e-mail correspondente à consulta.	
 	Atraso &gt; 60 segundos na abertura é avaliado em Questão 9 (Tempos de Espera).	</t>
@@ -112,7 +111,7 @@
     <t>Compreensão do Problema</t>
   </si>
   <si>
-    <t>O Agente não reconheceu todas as preocupações do cliente</t>
+    <t>Não reconheceu todas as preocupações do cliente</t>
   </si>
   <si>
     <t>COMPREENSÃO DO PROBLEMA
@@ -133,7 +132,7 @@
 	Perguntar sobre mensagens de erro ou confirmar detalhes não é considerado falha (ex: "Qual erro aparece?").</t>
   </si>
   <si>
-    <t>O Agente não coletou as informações relevantes ao revisar os comentários do cliente e navegar pelas ferramentas</t>
+    <t>Não coletou informações relevantes (comentários/ferramentas)</t>
   </si>
   <si>
     <t>COMPREENSÃO DO PROBLEMA
@@ -154,7 +153,7 @@
 	Falha em acessar a conta é penalizada em Questão 5.1 (Ações Internas).</t>
   </si>
   <si>
-    <t>O Agente não fez perguntas relevantes</t>
+    <t>Não fez perguntas relevantes</t>
   </si>
   <si>
     <t>COMPREENSÃO DO PROBLEMA
@@ -175,7 +174,7 @@
     <t>Resolução</t>
   </si>
   <si>
-    <t>O Agente não forneceu uma resolução que seja consistente com a Base de Conhecimento (KB)</t>
+    <t>Resolução fora da Base de Conhecimento (KB)</t>
   </si>
   <si>
     <t>RESOLUÇÃO
@@ -199,7 +198,7 @@
         Apenas atualizações comunicadas formalmente por e-mail são consideradas; informações em Teams não são base para auditoria.</t>
   </si>
   <si>
-    <t>O Agente não forneceu informações que sejam precisas, relevantes e completas</t>
+    <t>Informações imprecisas, irrelevantes ou incompletas</t>
   </si>
   <si>
     <t>RESOLUÇÃO
@@ -220,7 +219,7 @@
 	Se o Agente fornecer informações erradas sobre os critérios de qualificação para uma oferta, isso é considerado uma falha. O Agente 	falhou em dar a orientação correta sobre o motivo da não qualificação, o que é essencial para resolver a dúvida do cliente com precisão.</t>
   </si>
   <si>
-    <t>O Agente não abordou todas as preocupações do cliente</t>
+    <t>Não abordou todas as preocupações do cliente</t>
   </si>
   <si>
     <t>RESOLUÇÃO
@@ -240,7 +239,7 @@
 	Nenhuma questão secundária relevante levantadas durante a conversa pode ser ignorada; o agente deve resolvê-la, orientar o cliente ou perguntar se deseja abordá-la.</t>
   </si>
   <si>
-    <t>O Agente não resolveu questões adicionais pendentes da conta ou consultas do cliente</t>
+    <t>Não resolveu questões adicionais da conta</t>
   </si>
   <si>
     <t>RESOLUÇÃO
@@ -264,7 +263,7 @@
     <t>Ações Corretas</t>
   </si>
   <si>
-    <t>O Agente não realizou as ações externas (voltadas para o cliente) corretamente</t>
+    <t>Ações externas (voltadas ao cliente)</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -284,7 +283,7 @@
 	Ferramenta indisponível → Registrar como falha de processo.</t>
   </si>
   <si>
-    <t>O Agente não realizou as ações internas (não voltadas para o cliente) corretamente</t>
+    <t>Ações internas (processos internos)</t>
   </si>
   <si>
     <t xml:space="preserve">AÇÕES CORRETAS
@@ -305,7 +304,7 @@
 </t>
   </si>
   <si>
-    <t>O Agente não fez os ajustes monetários necessários dentro dos limites especificados</t>
+    <t>Não realizou ajustes monetários necessários (dentro do limite)</t>
   </si>
   <si>
     <t xml:space="preserve">AÇÕES CORRETAS
@@ -325,7 +324,7 @@
 </t>
   </si>
   <si>
-    <t>O Agente não roteou o contato para o departamento correto</t>
+    <t>Não transferiu corretamente o contato</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -342,7 +341,7 @@
 	Não transferir cliente que precisa de suporte de RG.</t>
   </si>
   <si>
-    <t>O Agente não fechou contatos duplicados</t>
+    <t>Não fechou contatos duplicados</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -361,7 +360,7 @@
 	Telefone: Gerenciar casos via Zendesk para chamadas Twilio.</t>
   </si>
   <si>
-    <t>O Agente não compartilhou os detalhes necessários internamente conforme as diretrizes</t>
+    <t>Não compartilhou detalhes internos conforme diretrizes</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -380,7 +379,7 @@
 	Se não há modelo definido na KB, registrar como oportunidade de melhoria.</t>
   </si>
   <si>
-    <t>O Agente não escalou a questão corretamente conforme a KB</t>
+    <t>Não escalou corretamente conforme KB</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -397,7 +396,7 @@
 	Encerrar contato sem escalar.</t>
   </si>
   <si>
-    <t>O Agente não compartilhou os detalhes da escalação corretamente</t>
+    <t>Não compartilhou detalhes da escalação corretamente</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -416,7 +415,7 @@
 	Se o HD precisar solicitar detalhes ausentes, é falha.</t>
   </si>
   <si>
-    <t>O Agente não selecionou o tipo de problema correto</t>
+    <t>Tipo de problema selecionado incorretamente</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -435,7 +434,7 @@
 	Telefone: Não aplicável para chamadas via Twilio/Verint.</t>
   </si>
   <si>
-    <t>O Agente não seguiu as diretrizes de tempo de espera</t>
+    <t>Não seguiu diretrizes de tempo de espera</t>
   </si>
   <si>
     <t>AÇÕES CORRETAS
@@ -461,7 +460,7 @@
     <t>Comunicação Fechamento</t>
   </si>
   <si>
-    <t>O Agente não definiu as expectativas corretamente</t>
+    <t>Não definiu expectativas corretamente</t>
   </si>
   <si>
     <t>COMUNICAÇÃO FECHAMENTO
@@ -478,7 +477,7 @@
 	Se não há prazo definido na KB, registrar como lacuna para que seja esclarecido e garantir um prazo concreto para o cliente.</t>
   </si>
   <si>
-    <t>O Agente não orientou e educou o cliente</t>
+    <t>Não orientou nem educou o cliente</t>
   </si>
   <si>
     <t xml:space="preserve">COMUNICAÇÃO FECHAMENTO
@@ -498,7 +497,7 @@
 </t>
   </si>
   <si>
-    <t>O Agente não verificou necessidades adicionais</t>
+    <t>Não verificou necessidades adicionais</t>
   </si>
   <si>
     <t xml:space="preserve">COMUNICAÇÃO FECHAMENTO
@@ -516,7 +515,7 @@
 </t>
   </si>
   <si>
-    <t>O Agente não demonstrou empatia</t>
+    <t>Falta de empatia no atendimento</t>
   </si>
   <si>
     <t>COMUNICAÇÃO FECHAMENTO
@@ -539,7 +538,7 @@
 		Próximos passos</t>
   </si>
   <si>
-    <t>O Agente não personalizou a situação do cliente</t>
+    <t>Não personalizou a situação do cliente</t>
   </si>
   <si>
     <t>COMUNICAÇÃO FECHAMENTO
@@ -555,7 +554,7 @@
 	E-mails: Nome do cliente é obrigatório.</t>
   </si>
   <si>
-    <t>O Agente não aplicou corretamente a gramática, ortografia, formatação ou pontuação no contato</t>
+    <t>Erros de gramática, ortografia ou formatação</t>
   </si>
   <si>
     <t>COMUNICAÇÃO FECHAMENTO
@@ -576,7 +575,7 @@
 		Outros erros que prejudiquem o atendimento</t>
   </si>
   <si>
-    <t>O Agente usou as mesmas respostas salvas durante todo o contato ou soou robótico</t>
+    <t>Uso excessivo de respostas salvas / tom robótico</t>
   </si>
   <si>
     <t>COMUNICAÇÃO FECHAMENTO
@@ -589,7 +588,7 @@
 	Copiar e colar a mesma mensagem novamente mesmo com o cliente não entendendo.</t>
   </si>
   <si>
-    <t>O Agente interrompeu o cliente, cortou a fala ou apressou o contato</t>
+    <t>Interrompeu, cortou a fala ou apressou o cliente</t>
   </si>
   <si>
     <t>COMUNICAÇÃO FECHAMENTO
@@ -610,7 +609,7 @@
     <t>Conformidade Crítica</t>
   </si>
   <si>
-    <t>A comunicação ou as ações do Agente comprometeram a privacidade do cliente (Segurança da Conta, Máscara PCI)</t>
+    <t>Comprometeu a privacidade do cliente (Segurança/PCI)</t>
   </si>
   <si>
     <t>CONFORMIDADE CRÍTICA
@@ -623,7 +622,7 @@
 	Erro em validar dados de segurança.</t>
   </si>
   <si>
-    <t>A comunicação ou as ações do Agente violaram a confidencialidade da Bet365 (Compartilhamento de informações internas, divulgação de processos da empresa, compartilhamento de informações sobre outros usuários, etc.)</t>
+    <t>Violou confidencialidade da empresa (informações internas)</t>
   </si>
   <si>
     <t>CONFORMIDADE CRÍTICA
@@ -635,7 +634,7 @@
 	Discutir detalhes da conta com terceiro não autorizado.</t>
   </si>
   <si>
-    <t>A comunicação do Agente não é aprovada ou regulamentada (Comentários negativos sobre a empresa, comportamento rude, etc.)</t>
+    <t xml:space="preserve">Comunicação inadequada (comentários negativos, rudeza) </t>
   </si>
   <si>
     <t>CONFORMIDADE CRÍTICA
@@ -649,7 +648,7 @@
 	(bater boca com cliente)</t>
   </si>
   <si>
-    <t>O Agente não escalou corretamente uma questão de jogo responsável</t>
+    <t>Não escalou corretamente questão de jogo responsável</t>
   </si>
   <si>
     <t>CONFORMIDADE CRÍTICA
@@ -661,7 +660,7 @@
 	Ignorar comentário como "Preciso do saque para pagar contas".</t>
   </si>
   <si>
-    <t>O Agente não escalou corretamente ameaças legais ou regulatórias</t>
+    <t>Não escalou corretamente ameaças legais/regulatórias</t>
   </si>
   <si>
     <t>CONFORMIDADE CRÍTICA
@@ -1539,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1561,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="375.75">
+    <row r="2" spans="1:3" ht="409.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="274.5">
+    <row r="3" spans="1:3" ht="260.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>

--- a/guia.xlsx
+++ b/guia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240A2BF5-7828-4FBE-8569-D03CB1FCD0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD575935-A2F5-492F-8DA0-73362FBF8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,28 +81,28 @@
     <t>Não cumprimentou corretamente (padrão regional/linguístico)</t>
   </si>
   <si>
-    <t xml:space="preserve">###**Razão da Falha**:		
+    <t xml:space="preserve">**Razão da Falha		
 	Uso incorreto do modelo de cumprimento (ex: BraHello	
 	 quando há histórico de Chatbot).	
-**Comportamento Correto**:		
+**Comportamento Correto:		
 	BraHello&gt;	
 	Sem interação prévia com Chatbot.	
 	BraAcceptTransfer	&gt;
 	Quando há conversa prévia com Chatbot.	
-**Comportamento Incorreto**:		
+**Comportamento Incorreto:		
 	Não usar modelo específico ou usar modelo inadequado ao contexto.	
-**Exemplos**:		
-	**Correto**:	
+**Exemplos:		
+	**Correto:	
 		Cenário: Cliente relata depósito não creditado após interagir com Chatbot.
 		Ação do Agente: Usa 
 		IngAcceptTransfer
 		 e menciona: "Vi que seu contato é sobre o depósito".
-	**Incorreto**:	
+	**Incorreto:	
 		Cenário: Histórico de Chatbot visível.
 		Ação do Agente: Usa 
 		BraHello
 		 ou mensagem genérica ("Como posso ajudar?").
-**Notas**:		
+**Notas:		
 	Personalização (ex: incluir nome do cliente) é permitida, mas não substitui o modelo obrigatório.	
 	E-mails: Selecionar modelo de e-mail correspondente à consulta.	
 	Atraso &gt; 60 segundos na abertura é avaliado em Questão 9 (Tempos de Espera).	</t>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/guia.xlsx
+++ b/guia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD575935-A2F5-492F-8DA0-73362FBF8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34D71A2-851F-4201-A356-D13AA0E8E0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,28 +81,28 @@
     <t>Não cumprimentou corretamente (padrão regional/linguístico)</t>
   </si>
   <si>
-    <t xml:space="preserve">**Razão da Falha		
+    <t xml:space="preserve">**Razão da Falha**		
 	Uso incorreto do modelo de cumprimento (ex: BraHello	
 	 quando há histórico de Chatbot).	
-**Comportamento Correto:		
+**Comportamento Correto**:		
 	BraHello&gt;	
 	Sem interação prévia com Chatbot.	
 	BraAcceptTransfer	&gt;
 	Quando há conversa prévia com Chatbot.	
-**Comportamento Incorreto:		
+**Comportamento Incorreto**:		
 	Não usar modelo específico ou usar modelo inadequado ao contexto.	
-**Exemplos:		
+**Exemplos**:		
 	**Correto:	
 		Cenário: Cliente relata depósito não creditado após interagir com Chatbot.
 		Ação do Agente: Usa 
 		IngAcceptTransfer
 		 e menciona: "Vi que seu contato é sobre o depósito".
-	**Incorreto:	
+	**Incorreto**:	
 		Cenário: Histórico de Chatbot visível.
 		Ação do Agente: Usa 
 		BraHello
 		 ou mensagem genérica ("Como posso ajudar?").
-**Notas:		
+**Notas**:		
 	Personalização (ex: incluir nome do cliente) é permitida, mas não substitui o modelo obrigatório.	
 	E-mails: Selecionar modelo de e-mail correspondente à consulta.	
 	Atraso &gt; 60 segundos na abertura é avaliado em Questão 9 (Tempos de Espera).	</t>

--- a/guia.xlsx
+++ b/guia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34D71A2-851F-4201-A356-D13AA0E8E0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D7A9AA-0987-4BAF-B30F-F4C00F1B5BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,31 +81,26 @@
     <t>Não cumprimentou corretamente (padrão regional/linguístico)</t>
   </si>
   <si>
-    <t xml:space="preserve">**Razão da Falha**		
-	Uso incorreto do modelo de cumprimento (ex: BraHello	
-	 quando há histórico de Chatbot).	
-**Comportamento Correto**:		
-	BraHello&gt;	
-	Sem interação prévia com Chatbot.	
-	BraAcceptTransfer	&gt;
-	Quando há conversa prévia com Chatbot.	
-**Comportamento Incorreto**:		
-	Não usar modelo específico ou usar modelo inadequado ao contexto.	
-**Exemplos**:		
-	**Correto:	
-		Cenário: Cliente relata depósito não creditado após interagir com Chatbot.
-		Ação do Agente: Usa 
-		IngAcceptTransfer
-		 e menciona: "Vi que seu contato é sobre o depósito".
-	**Incorreto**:	
-		Cenário: Histórico de Chatbot visível.
-		Ação do Agente: Usa 
-		BraHello
-		 ou mensagem genérica ("Como posso ajudar?").
-**Notas**:		
-	Personalização (ex: incluir nome do cliente) é permitida, mas não substitui o modelo obrigatório.	
-	E-mails: Selecionar modelo de e-mail correspondente à consulta.	
-	Atraso &gt; 60 segundos na abertura é avaliado em Questão 9 (Tempos de Espera).	</t>
+    <t xml:space="preserve">**Razão da Falha**  
+	*Uso incorreto do modelo de cumprimento* (ex: *BraHello* quando há histórico de *Chatbot*).  
+**Comportamento Correto**  
+	*BraHello*:  
+  	Sem *interação prévia* com *Chatbot*.  
+	*BraAcceptTransfer*:  
+	Quando há *conversa prévia* com *Chatbot*.  
+**Comportamento Incorreto**  
+	Não usar *modelo específico* ou usar *modelo inadequado* ao contexto.  
+**Exemplos**  
+	✅ **Correto**  
+		*Cenário*: Cliente relata *depósito não creditado* após interagir com *Chatbot*.  
+		*Ação do Agente*: Usa *IngAcceptTransfer* e menciona: *"Vi que seu contato é sobre o depósito"*.  
+	❌ **Incorreto**  
+		*Cenário*: Histórico de *Chatbot* visível.  
+		*Ação do Agente*: Usa *BraHello* ou mensagem genérica (*"Como posso ajudar?"*).  
+**Notas**  
+	*Personalização* (ex: incluir nome do cliente) é permitida, mas não substitui o *modelo obrigatório*.  
+	*E-mails*: Selecionar *modelo de e-mail* correspondente à consulta.  
+	*Atraso &gt; 60 segundos* na abertura é avaliado em **Questão 9 (Tempos de Espera)**.  </t>
   </si>
   <si>
     <t>Compreensão do Problema</t>
@@ -114,22 +109,21 @@
     <t>Não reconheceu todas as preocupações do cliente</t>
   </si>
   <si>
-    <t>COMPREENSÃO DO PROBLEMA
-Razão da Falha:
-	Não identificar todas as questões do cliente (ex: ignorar uma reclamação ou dúvida).
-Comportamento Correto:
-	Reconhecer explicitamente cada preocupação (ex: "Entendo que você tem 3 questões: aposta, suspensão e saque").
-	Afirmar que irá investigar ou fazer perguntas que demonstrem entendimento.
-Comportamento Incorreto:
-	Focar apenas em uma questão e omitir outras mencionadas.
-Exemplos:
-Correto:
-	Cliente: "Preciso resolver uma aposta, minha conta está suspensa e quero saber do meu saque."
-	Agente: "Vou verificar sua aposta, a suspensão e o status do saque."
-Incorreto:
-	Agente: "Vou checar sua aposta" (ignora suspensão e saque).
-Notas:
-	Perguntar sobre mensagens de erro ou confirmar detalhes não é considerado falha (ex: "Qual erro aparece?").</t>
+    <t>**Razão da Falha:**
+	Não identificar *todas as questões* do cliente (ex: ignorar uma *reclamação* ou *dúvida*).
+**Comportamento Correto:**
+	Reconhecer explicitamente *cada preocupação* (ex: *"Entendo que você tem 3 questões: aposta, suspensão e saque"*).
+	Afirmar que irá *investigar* ou fazer *perguntas* que demonstrem *entendimento*.
+**Comportamento Incorreto:**
+	Focar apenas em *uma questão* e omitir outras mencionadas.
+**Exemplos:**
+	✅ **Correto:**
+		*Cliente*: *"Preciso resolver uma aposta, minha conta está suspensa e quero saber do meu saque."*
+		*Agente*: *"Vou verificar sua aposta, a suspensão e o status do saque."*
+	❌ **Incorreto:**
+		*Agente*: *"Vou checar sua aposta"* (ignora *suspensão* e *saque*).
+**Notas:**
+	*Perguntar* sobre *mensagens de erro* ou *confirmar detalhes* não é considerado *falha* (ex: *"Qual erro aparece?"*).</t>
   </si>
   <si>
     <t>Não coletou informações relevantes (comentários/ferramentas)</t>
@@ -1538,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1560,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.6">
+    <row r="2" spans="1:3" ht="378.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="260.25">
+    <row r="3" spans="1:3" ht="335.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
